--- a/Documentacion/FoxPro9_Order_for_Control_Properties.xlsx
+++ b/Documentacion/FoxPro9_Order_for_Control_Properties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="18855" windowHeight="10995" tabRatio="771" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="18855" windowHeight="10995" tabRatio="771" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="VFP9_Class_Props" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6028" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6031" uniqueCount="437">
   <si>
     <t>ButtonCount</t>
   </si>
@@ -1959,8 +1959,8 @@
   <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11431,7 +11431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
@@ -19191,11 +19191,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K442"/>
+  <dimension ref="A2:K443"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C241" sqref="C241"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -19403,33 +19403,21 @@
       <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="B26" t="s">
@@ -19729,16 +19717,25 @@
       </c>
     </row>
     <row r="41" spans="2:11">
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
       <c r="K41" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:11">
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
       <c r="K42" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="43" spans="2:11">
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
       <c r="D43" s="2" t="s">
         <v>10</v>
       </c>
@@ -19756,9 +19753,6 @@
       </c>
       <c r="J43" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="K43" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -19867,6 +19861,9 @@
       <c r="J50" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="K50" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2" t="s">
@@ -19890,6 +19887,9 @@
       <c r="J51" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K51" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="2" t="s">
@@ -19913,6 +19913,9 @@
       <c r="J52" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K52" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="2" t="s">
@@ -19936,3722 +19939,3730 @@
       <c r="J53" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K53" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" t="s">
-        <v>38</v>
-      </c>
-      <c r="H54" t="s">
-        <v>38</v>
-      </c>
       <c r="K54" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="B55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="B56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="B57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="B58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="B59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="B60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="B61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="B62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="B63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" t="s">
         <v>57</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>57</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>57</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>57</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H65" t="s">
         <v>57</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K65" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="K65" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="K66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="2:11">
       <c r="K67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="K68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="K69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="K70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="K71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
-      <c r="C71" t="s">
+    <row r="72" spans="2:11">
+      <c r="C72" t="s">
         <v>10</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>10</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F72" t="s">
         <v>10</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G72" t="s">
         <v>10</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K72" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11">
-      <c r="H72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K72" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="73" spans="2:11">
       <c r="H73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="H74" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K74" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11">
-      <c r="K74" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="K75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="K76" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11">
-      <c r="B76" t="s">
-        <v>132</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K76" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="K79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="K80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" t="s">
-        <v>137</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="K81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" t="s">
+        <v>137</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" t="s">
         <v>138</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K83" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11">
-      <c r="J83" t="s">
-        <v>75</v>
-      </c>
-      <c r="K83" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="84" spans="2:11">
       <c r="J84" t="s">
+        <v>75</v>
+      </c>
+      <c r="K84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="J85" t="s">
         <v>36</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K85" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="2:11">
-      <c r="C85" t="s">
+    <row r="86" spans="2:11">
+      <c r="C86" t="s">
         <v>34</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H86" t="s">
         <v>34</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I86" t="s">
         <v>34</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K86" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="2:11">
-      <c r="I86" t="s">
+    <row r="87" spans="2:11">
+      <c r="I87" t="s">
         <v>274</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K87" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11">
-      <c r="C87" t="s">
-        <v>56</v>
-      </c>
-      <c r="J87" t="s">
-        <v>56</v>
-      </c>
-      <c r="K87" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="88" spans="2:11">
       <c r="C88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="C89" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="J89" t="s">
+        <v>55</v>
       </c>
       <c r="K89" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="2:11">
       <c r="C90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="2:11">
       <c r="C91" t="s">
+        <v>58</v>
+      </c>
+      <c r="K91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="C92" t="s">
         <v>60</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K92" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="2:11">
-      <c r="B92" t="s">
+    <row r="93" spans="2:11">
+      <c r="B93" t="s">
         <v>139</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K93" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J94" t="s">
-        <v>268</v>
-      </c>
-      <c r="K94" t="s">
-        <v>268</v>
+        <v>414</v>
       </c>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J95" t="s">
+        <v>268</v>
+      </c>
+      <c r="K95" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="96" spans="2:11">
-      <c r="B96" t="s">
+    <row r="97" spans="2:11">
+      <c r="B97" t="s">
         <v>140</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K96" t="s">
+      <c r="K97" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="E97" t="s">
-        <v>246</v>
-      </c>
-      <c r="K97" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="E98" t="s">
+        <v>246</v>
+      </c>
+      <c r="K98" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="E99" t="s">
         <v>247</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="99" spans="2:11">
-      <c r="C99" t="s">
+    <row r="100" spans="2:11">
+      <c r="C100" t="s">
         <v>51</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>51</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J100" t="s">
         <v>51</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K100" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11">
-      <c r="J100" t="s">
-        <v>269</v>
-      </c>
-      <c r="K100" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="J101" t="s">
+        <v>269</v>
+      </c>
+      <c r="K101" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="J102" t="s">
         <v>63</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K102" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11">
-      <c r="C102" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="I102" t="s">
-        <v>11</v>
-      </c>
-      <c r="J102" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="103" spans="2:11">
       <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" t="s">
+        <v>11</v>
+      </c>
+      <c r="J103" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="C104" t="s">
         <v>12</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D104" t="s">
         <v>12</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F104" t="s">
         <v>12</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I104" t="s">
         <v>12</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J104" t="s">
         <v>12</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K104" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="2:11">
-      <c r="F104" t="s">
+    <row r="105" spans="2:11">
+      <c r="F105" t="s">
         <v>170</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I105" t="s">
         <v>170</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K105" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
-      <c r="J105" t="s">
+    <row r="106" spans="2:11">
+      <c r="J106" t="s">
         <v>90</v>
       </c>
-      <c r="K105" t="s">
+      <c r="K106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="2:11">
-      <c r="F106" t="s">
+    <row r="107" spans="2:11">
+      <c r="F107" t="s">
         <v>171</v>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="J107" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K107" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
-      <c r="J107" t="s">
+    <row r="108" spans="2:11">
+      <c r="J108" t="s">
         <v>91</v>
       </c>
-      <c r="K107" t="s">
+      <c r="K108" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
-      <c r="C108" t="s">
+    <row r="109" spans="2:11">
+      <c r="C109" t="s">
         <v>37</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E109" t="s">
         <v>37</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J109" t="s">
         <v>37</v>
       </c>
-      <c r="K108" t="s">
+      <c r="K109" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11">
-      <c r="E109" t="s">
-        <v>248</v>
-      </c>
-      <c r="K109" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="110" spans="2:11">
       <c r="E110" t="s">
+        <v>248</v>
+      </c>
+      <c r="K110" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="E111" t="s">
         <v>249</v>
       </c>
-      <c r="K110" t="s">
+      <c r="K111" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11">
-      <c r="B111" t="s">
-        <v>141</v>
-      </c>
-      <c r="F111" t="s">
-        <v>141</v>
-      </c>
-      <c r="I111" t="s">
-        <v>141</v>
-      </c>
-      <c r="K111" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="112" spans="2:11">
       <c r="B112" t="s">
-        <v>142</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>22</v>
+        <v>141</v>
+      </c>
+      <c r="F112" t="s">
+        <v>141</v>
+      </c>
+      <c r="I112" t="s">
+        <v>141</v>
       </c>
       <c r="K112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" t="s">
+        <v>142</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11">
+      <c r="B114" t="s">
         <v>143</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K114" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="2:11">
-      <c r="B114" s="2" t="s">
+    <row r="115" spans="2:11">
+      <c r="B115" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J115" t="s">
         <v>92</v>
       </c>
-      <c r="K114" t="s">
+      <c r="K115" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11">
-      <c r="J115" t="s">
-        <v>93</v>
-      </c>
-      <c r="K115" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="J116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="2:11">
       <c r="J117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="2:11">
       <c r="J118" t="s">
+        <v>95</v>
+      </c>
+      <c r="K118" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="J119" t="s">
         <v>110</v>
       </c>
-      <c r="K118" t="s">
+      <c r="K119" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11">
-      <c r="C119" t="s">
-        <v>1</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1</v>
-      </c>
-      <c r="J119" t="s">
-        <v>1</v>
-      </c>
-      <c r="K119" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="120" spans="2:11">
       <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="C121" t="s">
         <v>3</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>3</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E121" t="s">
         <v>3</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G121" t="s">
         <v>3</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J121" t="s">
         <v>3</v>
       </c>
-      <c r="K120" t="s">
+      <c r="K121" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:11">
-      <c r="D121" t="s">
+    <row r="122" spans="2:11">
+      <c r="D122" t="s">
         <v>36</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E122" t="s">
         <v>250</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G122" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K121" t="s">
+      <c r="K122" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11">
-      <c r="D122" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E122" t="s">
-        <v>215</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K122" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="123" spans="2:11">
       <c r="D123" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E123" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K123" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="124" spans="2:11">
       <c r="D124" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E124" t="s">
+        <v>216</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K124" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11">
+      <c r="D125" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E125" t="s">
         <v>217</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="G125" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K124" t="s">
+      <c r="K125" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11">
-      <c r="E125" t="s">
-        <v>218</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K125" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="126" spans="2:11">
       <c r="E126" t="s">
+        <v>218</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K126" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11">
+      <c r="E127" t="s">
         <v>219</v>
       </c>
-      <c r="K126" t="s">
+      <c r="K127" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="127" spans="2:11">
-      <c r="D127" t="s">
+    <row r="128" spans="2:11">
+      <c r="D128" t="s">
         <v>111</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K128" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="128" spans="2:11">
-      <c r="D128" s="2" t="s">
+    <row r="129" spans="2:11">
+      <c r="D129" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="2:11">
-      <c r="D129" t="s">
+    <row r="130" spans="2:11">
+      <c r="D130" t="s">
         <v>112</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K130" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="2:11">
-      <c r="B130" t="s">
+    <row r="131" spans="2:11">
+      <c r="B131" t="s">
         <v>13</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>13</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D131" t="s">
         <v>13</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E131" t="s">
         <v>13</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F131" t="s">
         <v>13</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H131" t="s">
         <v>13</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I131" t="s">
         <v>13</v>
       </c>
-      <c r="J130" t="s">
+      <c r="J131" t="s">
         <v>13</v>
       </c>
-      <c r="K130" t="s">
+      <c r="K131" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="2:11">
-      <c r="C131" s="2" t="s">
+    <row r="132" spans="2:11">
+      <c r="C132" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I132" t="s">
         <v>368</v>
       </c>
-      <c r="K131" t="s">
+      <c r="K132" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="2:11">
-      <c r="F132" t="s">
+    <row r="133" spans="2:11">
+      <c r="F133" t="s">
         <v>144</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K133" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="2:11">
-      <c r="B133" t="s">
-        <v>145</v>
-      </c>
-      <c r="K133" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="B134" t="s">
+        <v>145</v>
+      </c>
+      <c r="K134" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11">
+      <c r="B135" t="s">
         <v>146</v>
       </c>
-      <c r="K134" t="s">
+      <c r="K135" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11">
-      <c r="B135" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11">
+      <c r="B137" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11">
-      <c r="B137" t="s">
-        <v>147</v>
-      </c>
-      <c r="K137" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="138" spans="2:11">
       <c r="B138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="B139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="2:11">
       <c r="B140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="2:11">
       <c r="B141" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K141" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="2:11">
       <c r="B142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="2:11">
       <c r="B143" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K143" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="2:11">
       <c r="B144" t="s">
+        <v>153</v>
+      </c>
+      <c r="K144" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" t="s">
         <v>154</v>
       </c>
-      <c r="K144" t="s">
+      <c r="K145" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="145" spans="2:11">
-      <c r="E145" s="2" t="s">
+    <row r="146" spans="2:11">
+      <c r="E146" s="2" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11">
-      <c r="E146" t="s">
-        <v>251</v>
-      </c>
-      <c r="K146" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="147" spans="2:11">
       <c r="E147" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="K147" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148" spans="2:11">
       <c r="E148" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K148" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="149" spans="2:11">
       <c r="E149" t="s">
+        <v>221</v>
+      </c>
+      <c r="K149" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="E150" t="s">
         <v>222</v>
       </c>
-      <c r="K149" t="s">
+      <c r="K150" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="150" spans="2:11">
-      <c r="E150" s="2" t="s">
+    <row r="151" spans="2:11">
+      <c r="E151" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J151" t="s">
         <v>96</v>
       </c>
-      <c r="K150" t="s">
+      <c r="K151" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
-      <c r="J151" t="s">
+    <row r="152" spans="2:11">
+      <c r="J152" t="s">
         <v>71</v>
       </c>
-      <c r="K151" t="s">
+      <c r="K152" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11">
-      <c r="B152" t="s">
-        <v>23</v>
-      </c>
-      <c r="C152" t="s">
-        <v>23</v>
-      </c>
-      <c r="D152" t="s">
-        <v>23</v>
-      </c>
-      <c r="E152" t="s">
-        <v>23</v>
-      </c>
-      <c r="F152" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" t="s">
-        <v>23</v>
-      </c>
-      <c r="H152" t="s">
-        <v>23</v>
-      </c>
-      <c r="I152" t="s">
-        <v>23</v>
-      </c>
-      <c r="J152" t="s">
-        <v>23</v>
-      </c>
-      <c r="K152" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="153" spans="2:11">
       <c r="B153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="2:11">
       <c r="B154" t="s">
-        <v>155</v>
+        <v>24</v>
+      </c>
+      <c r="C154" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" t="s">
+        <v>24</v>
+      </c>
+      <c r="F154" t="s">
+        <v>24</v>
+      </c>
+      <c r="G154" t="s">
+        <v>24</v>
+      </c>
+      <c r="H154" t="s">
+        <v>24</v>
+      </c>
+      <c r="I154" t="s">
+        <v>24</v>
+      </c>
+      <c r="J154" t="s">
+        <v>24</v>
       </c>
       <c r="K154" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="2:11">
       <c r="B155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="2:11">
       <c r="B156" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="K156" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="2:11">
       <c r="B157" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="K157" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="2:11">
       <c r="B158" t="s">
+        <v>157</v>
+      </c>
+      <c r="K158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11">
+      <c r="B159" t="s">
         <v>158</v>
       </c>
-      <c r="K158" t="s">
+      <c r="K159" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11">
-      <c r="E159" t="s">
-        <v>223</v>
-      </c>
-      <c r="K159" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="160" spans="2:11">
       <c r="E160" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K160" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="161" spans="3:11">
       <c r="E161" t="s">
+        <v>224</v>
+      </c>
+      <c r="K161" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="162" spans="3:11">
+      <c r="E162" t="s">
         <v>225</v>
       </c>
-      <c r="K161" t="s">
+      <c r="K162" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="162" spans="3:11">
-      <c r="I162" s="2" t="s">
+    <row r="163" spans="3:11">
+      <c r="I163" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J162" t="s">
+      <c r="J163" t="s">
         <v>72</v>
       </c>
-      <c r="K162" t="s">
+      <c r="K163" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="163" spans="3:11">
-      <c r="J163" t="s">
+    <row r="164" spans="3:11">
+      <c r="J164" t="s">
         <v>97</v>
       </c>
-      <c r="K163" t="s">
+      <c r="K164" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="164" spans="3:11">
-      <c r="I164" s="2" t="s">
+    <row r="165" spans="3:11">
+      <c r="I165" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J164" t="s">
+      <c r="J165" t="s">
         <v>98</v>
       </c>
-      <c r="K164" t="s">
+      <c r="K165" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="165" spans="3:11">
-      <c r="C165" s="2" t="s">
+    <row r="166" spans="3:11">
+      <c r="C166" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E166" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J165" t="s">
+      <c r="J166" t="s">
         <v>185</v>
       </c>
-      <c r="K165" t="s">
+      <c r="K166" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="166" spans="3:11">
-      <c r="J166" t="s">
-        <v>73</v>
-      </c>
-      <c r="K166" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="167" spans="3:11">
       <c r="J167" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="K167" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
     </row>
     <row r="168" spans="3:11">
       <c r="J168" t="s">
+        <v>186</v>
+      </c>
+      <c r="K168" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="3:11">
+      <c r="J169" t="s">
         <v>187</v>
       </c>
-      <c r="K168" t="s">
+      <c r="K169" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="169" spans="3:11">
-      <c r="G169" t="s">
-        <v>276</v>
-      </c>
-      <c r="K169" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="170" spans="3:11">
       <c r="G170" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K170" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="171" spans="3:11">
       <c r="G171" t="s">
+        <v>277</v>
+      </c>
+      <c r="K171" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="172" spans="3:11">
+      <c r="G172" t="s">
         <v>278</v>
       </c>
-      <c r="K171" t="s">
+      <c r="K172" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="172" spans="3:11">
-      <c r="E172" t="s">
+    <row r="173" spans="3:11">
+      <c r="E173" t="s">
         <v>226</v>
       </c>
-      <c r="K172" t="s">
+      <c r="K173" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="173" spans="3:11">
-      <c r="J173" t="s">
-        <v>74</v>
-      </c>
-      <c r="K173" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="174" spans="3:11">
       <c r="J174" t="s">
+        <v>74</v>
+      </c>
+      <c r="K174" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="175" spans="3:11">
+      <c r="J175" t="s">
         <v>75</v>
       </c>
-      <c r="K174" t="s">
+      <c r="K175" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="175" spans="3:11">
-      <c r="C175" t="s">
-        <v>18</v>
-      </c>
-      <c r="D175" t="s">
-        <v>18</v>
-      </c>
-      <c r="E175" t="s">
-        <v>18</v>
-      </c>
-      <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="I175" t="s">
-        <v>18</v>
-      </c>
-      <c r="J175" t="s">
-        <v>18</v>
-      </c>
-      <c r="K175" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="176" spans="3:11">
       <c r="C176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176" t="s">
+        <v>18</v>
+      </c>
+      <c r="I176" t="s">
+        <v>18</v>
+      </c>
+      <c r="J176" t="s">
+        <v>18</v>
+      </c>
+      <c r="K176" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="3:11">
+      <c r="C177" t="s">
         <v>35</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>35</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E177" t="s">
         <v>35</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F177" t="s">
         <v>35</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I177" t="s">
         <v>35</v>
       </c>
-      <c r="J176" t="s">
+      <c r="J177" t="s">
         <v>35</v>
       </c>
-      <c r="K176" t="s">
+      <c r="K177" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="5:11">
-      <c r="E177" t="s">
+    <row r="178" spans="3:11">
+      <c r="E178" t="s">
         <v>227</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="F178" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I177" s="2" t="s">
+      <c r="I178" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K177" t="s">
+      <c r="K178" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="178" spans="5:11">
-      <c r="E178" t="s">
+    <row r="179" spans="3:11">
+      <c r="E179" t="s">
         <v>228</v>
       </c>
-      <c r="F178" s="2" t="s">
+      <c r="F179" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I178" s="2" t="s">
+      <c r="I179" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K178" t="s">
+      <c r="K179" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="179" spans="5:11">
-      <c r="E179" t="s">
+    <row r="180" spans="3:11">
+      <c r="E180" t="s">
         <v>64</v>
       </c>
-      <c r="J179" t="s">
+      <c r="J180" t="s">
         <v>64</v>
       </c>
-      <c r="K179" t="s">
+      <c r="K180" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="180" spans="5:11">
-      <c r="E180" t="s">
+    <row r="181" spans="3:11">
+      <c r="E181" t="s">
         <v>229</v>
       </c>
-      <c r="K180" t="s">
+      <c r="K181" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="181" spans="5:11">
-      <c r="E181" t="s">
+    <row r="182" spans="3:11">
+      <c r="E182" t="s">
         <v>230</v>
       </c>
-      <c r="K181" t="s">
+      <c r="K182" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="5:11">
-      <c r="E182" t="s">
+    <row r="183" spans="3:11">
+      <c r="E183" t="s">
         <v>231</v>
       </c>
-      <c r="K182" t="s">
+      <c r="K183" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="5:11">
-      <c r="E183" t="s">
+    <row r="184" spans="3:11">
+      <c r="E184" t="s">
         <v>232</v>
       </c>
-      <c r="K183" t="s">
+      <c r="K184" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="184" spans="5:11">
-      <c r="E184" t="s">
+    <row r="185" spans="3:11">
+      <c r="E185" t="s">
         <v>233</v>
       </c>
-      <c r="K184" t="s">
+      <c r="K185" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="5:11">
-      <c r="E185" t="s">
+    <row r="186" spans="3:11">
+      <c r="E186" t="s">
         <v>252</v>
       </c>
-      <c r="K185" t="s">
+      <c r="K186" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="186" spans="5:11">
-      <c r="E186" s="2" t="s">
+    <row r="187" spans="3:11">
+      <c r="E187" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F186" s="2" t="s">
+      <c r="F187" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="5:11">
-      <c r="E187" t="s">
+    <row r="188" spans="3:11">
+      <c r="E188" t="s">
         <v>76</v>
       </c>
-      <c r="K187" t="s">
+      <c r="K188" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="5:11">
-      <c r="E188" t="s">
+    <row r="189" spans="3:11">
+      <c r="E189" t="s">
         <v>253</v>
       </c>
-      <c r="K188" t="s">
+      <c r="K189" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="189" spans="5:11">
-      <c r="E189" t="s">
+    <row r="190" spans="3:11">
+      <c r="E190" t="s">
         <v>254</v>
       </c>
-      <c r="K189" t="s">
+      <c r="K190" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="190" spans="5:11">
-      <c r="E190" t="s">
+    <row r="191" spans="3:11">
+      <c r="E191" t="s">
         <v>255</v>
       </c>
-      <c r="K190" t="s">
+      <c r="K191" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="191" spans="5:11">
-      <c r="E191" t="s">
+    <row r="192" spans="3:11">
+      <c r="E192" t="s">
         <v>256</v>
       </c>
-      <c r="K191" t="s">
+      <c r="K192" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="192" spans="5:11">
-      <c r="E192" t="s">
-        <v>257</v>
-      </c>
-      <c r="K192" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="193" spans="5:11">
       <c r="E193" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K193" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="194" spans="5:11">
       <c r="E194" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K194" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="195" spans="5:11">
       <c r="E195" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K195" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="196" spans="5:11">
       <c r="E196" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K196" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="197" spans="5:11">
       <c r="E197" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K197" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="198" spans="5:11">
       <c r="E198" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K198" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="199" spans="5:11">
       <c r="E199" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K199" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="200" spans="5:11">
       <c r="E200" t="s">
+        <v>264</v>
+      </c>
+      <c r="K200" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="201" spans="5:11">
+      <c r="E201" t="s">
         <v>265</v>
       </c>
-      <c r="K200" t="s">
+      <c r="K201" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="201" spans="5:11">
-      <c r="E201" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="202" spans="5:11">
       <c r="E202" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="203" spans="5:11">
+      <c r="E203" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="5:11">
-      <c r="J203" s="2" t="s">
+    <row r="204" spans="5:11">
+      <c r="J204" s="2" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="204" spans="5:11">
-      <c r="J204" t="s">
-        <v>418</v>
-      </c>
-      <c r="K204" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="205" spans="5:11">
       <c r="J205" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K205" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="206" spans="5:11">
       <c r="J206" t="s">
-        <v>99</v>
+        <v>419</v>
       </c>
       <c r="K206" t="s">
-        <v>99</v>
+        <v>419</v>
       </c>
     </row>
     <row r="207" spans="5:11">
       <c r="J207" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="K207" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="208" spans="5:11">
       <c r="J208" t="s">
+        <v>76</v>
+      </c>
+      <c r="K208" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="209" spans="3:11">
+      <c r="J209" t="s">
         <v>100</v>
       </c>
-      <c r="K208" t="s">
+      <c r="K209" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="3:11">
-      <c r="C209" t="s">
+    <row r="210" spans="3:11">
+      <c r="C210" t="s">
         <v>22</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D210" t="s">
         <v>22</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F210" t="s">
         <v>22</v>
       </c>
-      <c r="J209" t="s">
+      <c r="J210" t="s">
         <v>22</v>
       </c>
-      <c r="K209" t="s">
+      <c r="K210" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="210" spans="3:11">
-      <c r="H210" t="s">
-        <v>271</v>
-      </c>
-      <c r="K210" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="211" spans="3:11">
       <c r="H211" t="s">
+        <v>271</v>
+      </c>
+      <c r="K211" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="212" spans="3:11">
+      <c r="H212" t="s">
         <v>183</v>
       </c>
-      <c r="K211" t="s">
+      <c r="K212" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="212" spans="3:11">
-      <c r="J212" t="s">
-        <v>188</v>
-      </c>
-      <c r="K212" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="213" spans="3:11">
       <c r="J213" t="s">
+        <v>188</v>
+      </c>
+      <c r="K213" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="214" spans="3:11">
+      <c r="J214" t="s">
         <v>189</v>
       </c>
-      <c r="K213" t="s">
+      <c r="K214" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="214" spans="3:11">
-      <c r="C214" t="s">
-        <v>29</v>
-      </c>
-      <c r="J214" t="s">
-        <v>29</v>
-      </c>
-      <c r="K214" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="215" spans="3:11">
       <c r="C215" t="s">
-        <v>61</v>
-      </c>
-      <c r="D215" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="J215" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="K215" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216" spans="3:11">
       <c r="C216" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D216" t="s">
-        <v>21</v>
-      </c>
-      <c r="I216" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="J216" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="K216" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="217" spans="3:11">
       <c r="C217" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D217" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I217" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K217" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218" spans="3:11">
       <c r="C218" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D218" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="I218" t="s">
+        <v>48</v>
       </c>
       <c r="J218" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="K218" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="3:11">
       <c r="C219" t="s">
+        <v>30</v>
+      </c>
+      <c r="D219" t="s">
+        <v>30</v>
+      </c>
+      <c r="J219" t="s">
+        <v>30</v>
+      </c>
+      <c r="K219" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="3:11">
+      <c r="C220" t="s">
         <v>31</v>
       </c>
-      <c r="J219" t="s">
+      <c r="J220" t="s">
         <v>31</v>
       </c>
-      <c r="K219" t="s">
+      <c r="K220" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="220" spans="3:11">
-      <c r="C220" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="221" spans="3:11">
       <c r="C221" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="3:11">
+      <c r="C222" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="3:11">
-      <c r="C222" t="s">
+    <row r="223" spans="3:11">
+      <c r="C223" t="s">
         <v>36</v>
       </c>
-      <c r="K222" t="s">
+      <c r="K223" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="223" spans="3:11">
-      <c r="I223" t="s">
-        <v>275</v>
-      </c>
-      <c r="K223" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="224" spans="3:11">
       <c r="I224" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K224" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="225" spans="2:11">
       <c r="I225" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="K225" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="2:11">
       <c r="I226" t="s">
+        <v>125</v>
+      </c>
+      <c r="K226" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="227" spans="2:11">
+      <c r="I227" t="s">
         <v>206</v>
       </c>
-      <c r="K226" t="s">
+      <c r="K227" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="227" spans="2:11">
-      <c r="C227" t="s">
+    <row r="228" spans="2:11">
+      <c r="C228" t="s">
         <v>19</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D228" t="s">
         <v>19</v>
       </c>
-      <c r="I227" t="s">
+      <c r="I228" t="s">
         <v>19</v>
       </c>
-      <c r="J227" t="s">
+      <c r="J228" t="s">
         <v>19</v>
       </c>
-      <c r="K227" t="s">
+      <c r="K228" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="2:11">
-      <c r="C228" s="2" t="s">
+    <row r="229" spans="2:11">
+      <c r="C229" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J228" t="s">
+      <c r="J229" t="s">
         <v>77</v>
       </c>
-      <c r="K228" t="s">
+      <c r="K229" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="229" spans="2:11">
-      <c r="J229" t="s">
-        <v>78</v>
-      </c>
-      <c r="K229" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="230" spans="2:11">
       <c r="J230" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K230" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="231" spans="2:11">
       <c r="J231" t="s">
+        <v>79</v>
+      </c>
+      <c r="K231" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11">
+      <c r="J232" t="s">
         <v>80</v>
       </c>
-      <c r="K231" t="s">
+      <c r="K232" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="232" spans="2:11">
-      <c r="D232" t="s">
-        <v>59</v>
-      </c>
-      <c r="J232" t="s">
-        <v>59</v>
-      </c>
-      <c r="K232" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="233" spans="2:11">
       <c r="D233" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J233" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K233" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="234" spans="2:11">
       <c r="D234" t="s">
+        <v>58</v>
+      </c>
+      <c r="J234" t="s">
+        <v>58</v>
+      </c>
+      <c r="K234" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="235" spans="2:11">
+      <c r="D235" t="s">
         <v>60</v>
       </c>
-      <c r="J234" t="s">
+      <c r="J235" t="s">
         <v>60</v>
       </c>
-      <c r="K234" t="s">
+      <c r="K235" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="2:11">
-      <c r="I235" t="s">
+    <row r="236" spans="2:11">
+      <c r="I236" t="s">
         <v>174</v>
       </c>
-      <c r="K235" t="s">
+      <c r="K236" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="236" spans="2:11">
-      <c r="B236" t="s">
+    <row r="237" spans="2:11">
+      <c r="B237" t="s">
         <v>25</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C237" t="s">
         <v>25</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D237" t="s">
         <v>25</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F237" t="s">
         <v>25</v>
       </c>
-      <c r="H236" t="s">
+      <c r="H237" t="s">
         <v>25</v>
       </c>
-      <c r="I236" t="s">
+      <c r="I237" t="s">
         <v>25</v>
       </c>
-      <c r="J236" t="s">
+      <c r="J237" t="s">
         <v>25</v>
       </c>
-      <c r="K236" t="s">
+      <c r="K237" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="2:11">
-      <c r="C237" t="s">
+    <row r="238" spans="2:11">
+      <c r="C238" t="s">
         <v>52</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D238" t="s">
         <v>52</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F238" t="s">
         <v>52</v>
       </c>
-      <c r="J237" t="s">
+      <c r="J238" t="s">
         <v>52</v>
       </c>
-      <c r="K237" t="s">
+      <c r="K238" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="238" spans="2:11">
-      <c r="B238" t="s">
-        <v>50</v>
-      </c>
-      <c r="C238" t="s">
-        <v>50</v>
-      </c>
-      <c r="D238" t="s">
-        <v>50</v>
-      </c>
-      <c r="E238" t="s">
-        <v>50</v>
-      </c>
-      <c r="H238" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I238" t="s">
-        <v>50</v>
-      </c>
-      <c r="J238" t="s">
-        <v>50</v>
-      </c>
-      <c r="K238" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="239" spans="2:11">
       <c r="B239" t="s">
+        <v>50</v>
+      </c>
+      <c r="C239" t="s">
+        <v>50</v>
+      </c>
+      <c r="D239" t="s">
+        <v>50</v>
+      </c>
+      <c r="E239" t="s">
+        <v>50</v>
+      </c>
+      <c r="H239" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C239" t="s">
-        <v>26</v>
-      </c>
-      <c r="D239" t="s">
-        <v>26</v>
-      </c>
-      <c r="E239" t="s">
-        <v>26</v>
-      </c>
-      <c r="F239" t="s">
-        <v>26</v>
-      </c>
-      <c r="H239" s="2" t="s">
+      <c r="I239" t="s">
         <v>50</v>
       </c>
-      <c r="I239" t="s">
-        <v>26</v>
-      </c>
       <c r="J239" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="K239" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="240" spans="2:11">
       <c r="B240" t="s">
+        <v>26</v>
+      </c>
+      <c r="C240" t="s">
+        <v>26</v>
+      </c>
+      <c r="D240" t="s">
+        <v>26</v>
+      </c>
+      <c r="E240" t="s">
+        <v>26</v>
+      </c>
+      <c r="F240" t="s">
+        <v>26</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I240" t="s">
+        <v>26</v>
+      </c>
+      <c r="J240" t="s">
+        <v>26</v>
+      </c>
+      <c r="K240" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11">
+      <c r="B241" t="s">
         <v>159</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F241" t="s">
         <v>159</v>
       </c>
-      <c r="K240" t="s">
+      <c r="K241" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="241" spans="3:11">
-      <c r="C241" t="s">
+    <row r="242" spans="2:11">
+      <c r="C242" t="s">
         <v>436</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D242" t="s">
         <v>28</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F242" t="s">
         <v>28</v>
       </c>
-      <c r="I241" t="s">
+      <c r="I242" t="s">
         <v>28</v>
       </c>
-      <c r="K241" t="s">
+      <c r="K242" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="3:11">
-      <c r="E242" s="2" t="s">
+    <row r="243" spans="2:11">
+      <c r="E243" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F242" s="2" t="s">
+      <c r="F243" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I242" s="2" t="s">
+      <c r="I243" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="243" spans="3:11">
-      <c r="E243" t="s">
+    <row r="244" spans="2:11">
+      <c r="E244" t="s">
         <v>36</v>
       </c>
-      <c r="K243" t="s">
+      <c r="K244" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="244" spans="3:11">
-      <c r="E244" s="2" t="s">
+    <row r="245" spans="2:11">
+      <c r="E245" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H244" s="2" t="s">
+      <c r="H245" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="3:11">
-      <c r="E245" t="s">
+    <row r="246" spans="2:11">
+      <c r="E246" t="s">
         <v>234</v>
       </c>
-      <c r="K245" t="s">
+      <c r="K246" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="246" spans="3:11">
-      <c r="E246" s="2" t="s">
+    <row r="247" spans="2:11">
+      <c r="E247" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="3:11">
-      <c r="E247" s="2" t="s">
+    <row r="248" spans="2:11">
+      <c r="E248" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="3:11">
-      <c r="E248" s="2" t="s">
+    <row r="249" spans="2:11">
+      <c r="E249" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="249" spans="3:11">
-      <c r="E249" s="2" t="s">
+    <row r="250" spans="2:11">
+      <c r="E250" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="3:11">
-      <c r="E250" s="2" t="s">
+    <row r="251" spans="2:11">
+      <c r="E251" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="3:11">
-      <c r="E251" s="2" t="s">
+    <row r="252" spans="2:11">
+      <c r="E252" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="3:11">
-      <c r="E252" t="s">
+    <row r="253" spans="2:11">
+      <c r="E253" t="s">
         <v>235</v>
       </c>
-      <c r="K252" t="s">
+      <c r="K253" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="253" spans="3:11">
-      <c r="E253" s="2" t="s">
+    <row r="254" spans="2:11">
+      <c r="E254" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I253" s="2" t="s">
+      <c r="I254" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="254" spans="3:11">
-      <c r="E254" s="2" t="s">
+    <row r="255" spans="2:11">
+      <c r="E255" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I254" s="2" t="s">
+      <c r="I255" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="255" spans="3:11">
-      <c r="I255" t="s">
+    <row r="256" spans="2:11">
+      <c r="I256" t="s">
         <v>207</v>
       </c>
-      <c r="K255" t="s">
+      <c r="K256" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="256" spans="3:11">
-      <c r="I256" s="2" t="s">
+    <row r="257" spans="5:11">
+      <c r="I257" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="257" spans="3:11">
-      <c r="I257" t="s">
+    <row r="258" spans="5:11">
+      <c r="I258" t="s">
         <v>208</v>
       </c>
-      <c r="K257" t="s">
+      <c r="K258" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="258" spans="3:11">
-      <c r="I258" t="s">
+    <row r="259" spans="5:11">
+      <c r="I259" t="s">
         <v>209</v>
       </c>
-      <c r="K258" t="s">
+      <c r="K259" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="259" spans="3:11">
-      <c r="I259" t="s">
+    <row r="260" spans="5:11">
+      <c r="I260" t="s">
         <v>210</v>
       </c>
-      <c r="K259" t="s">
+      <c r="K260" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="260" spans="3:11">
-      <c r="I260" t="s">
+    <row r="261" spans="5:11">
+      <c r="I261" t="s">
         <v>211</v>
       </c>
-      <c r="K260" t="s">
+      <c r="K261" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="261" spans="3:11">
-      <c r="I261" t="s">
+    <row r="262" spans="5:11">
+      <c r="I262" t="s">
         <v>212</v>
       </c>
-      <c r="K261" t="s">
+      <c r="K262" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="262" spans="3:11">
-      <c r="G262" s="2" t="s">
+    <row r="263" spans="5:11">
+      <c r="G263" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H262" s="2" t="s">
+      <c r="H263" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I262" s="2" t="s">
+      <c r="I263" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="3:11">
-      <c r="G263" s="2" t="s">
+    <row r="264" spans="5:11">
+      <c r="G264" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H263" s="2" t="s">
+      <c r="H264" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I263" s="2" t="s">
+      <c r="I264" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="264" spans="3:11">
-      <c r="F264" t="s">
+    <row r="265" spans="5:11">
+      <c r="F265" t="s">
         <v>172</v>
       </c>
-      <c r="I264" t="s">
+      <c r="I265" t="s">
         <v>172</v>
       </c>
-      <c r="K264" t="s">
+      <c r="K265" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="265" spans="3:11">
-      <c r="E265" t="s">
+    <row r="266" spans="5:11">
+      <c r="E266" t="s">
         <v>236</v>
       </c>
-      <c r="K265" t="s">
+      <c r="K266" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="266" spans="3:11">
-      <c r="E266" t="s">
+    <row r="267" spans="5:11">
+      <c r="E267" t="s">
         <v>237</v>
       </c>
-      <c r="K266" t="s">
+      <c r="K267" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="267" spans="3:11">
-      <c r="E267" t="s">
+    <row r="268" spans="5:11">
+      <c r="E268" t="s">
         <v>238</v>
       </c>
-      <c r="K267" t="s">
+      <c r="K268" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="268" spans="3:11">
-      <c r="E268" t="s">
+    <row r="269" spans="5:11">
+      <c r="E269" t="s">
         <v>239</v>
       </c>
-      <c r="K268" t="s">
+      <c r="K269" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="269" spans="3:11">
-      <c r="J269" t="s">
+    <row r="270" spans="5:11">
+      <c r="J270" t="s">
         <v>101</v>
       </c>
-      <c r="K269" t="s">
+      <c r="K270" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="270" spans="3:11">
-      <c r="J270" t="s">
+    <row r="271" spans="5:11">
+      <c r="J271" t="s">
         <v>102</v>
       </c>
-      <c r="K270" t="s">
+      <c r="K271" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="271" spans="3:11">
-      <c r="J271" t="s">
+    <row r="272" spans="5:11">
+      <c r="J272" t="s">
         <v>104</v>
       </c>
-      <c r="K271" t="s">
+      <c r="K272" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="272" spans="3:11">
-      <c r="C272" t="s">
-        <v>54</v>
-      </c>
-      <c r="D272" t="s">
-        <v>54</v>
-      </c>
-      <c r="J272" t="s">
-        <v>53</v>
-      </c>
-      <c r="K272" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="273" spans="3:11">
       <c r="C273" t="s">
+        <v>54</v>
+      </c>
+      <c r="D273" t="s">
+        <v>54</v>
+      </c>
+      <c r="J273" t="s">
         <v>53</v>
       </c>
-      <c r="D273" t="s">
+      <c r="K273" t="s">
         <v>53</v>
       </c>
-      <c r="J273" t="s">
+    </row>
+    <row r="274" spans="3:11">
+      <c r="C274" t="s">
+        <v>53</v>
+      </c>
+      <c r="D274" t="s">
+        <v>53</v>
+      </c>
+      <c r="J274" t="s">
         <v>81</v>
       </c>
-      <c r="K273" t="s">
+      <c r="K274" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="274" spans="3:11">
-      <c r="J274" t="s">
-        <v>54</v>
-      </c>
-      <c r="K274" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="275" spans="3:11">
       <c r="J275" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="K275" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="276" spans="3:11">
       <c r="J276" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="K276" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="277" spans="3:11">
       <c r="J277" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K277" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="278" spans="3:11">
       <c r="J278" t="s">
+        <v>102</v>
+      </c>
+      <c r="K278" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="279" spans="3:11">
+      <c r="J279" t="s">
         <v>104</v>
       </c>
-      <c r="K278" t="s">
+      <c r="K279" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="279" spans="3:11">
-      <c r="E279" t="s">
-        <v>105</v>
-      </c>
-      <c r="J279" t="s">
-        <v>103</v>
-      </c>
-      <c r="K279" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="280" spans="3:11">
       <c r="E280" t="s">
+        <v>105</v>
+      </c>
+      <c r="J280" t="s">
         <v>103</v>
       </c>
-      <c r="J280" t="s">
-        <v>105</v>
-      </c>
       <c r="K280" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="281" spans="3:11">
       <c r="E281" t="s">
-        <v>240</v>
+        <v>103</v>
       </c>
       <c r="J281" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K281" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="282" spans="3:11">
       <c r="E282" t="s">
-        <v>49</v>
-      </c>
-      <c r="J282" s="2" t="s">
-        <v>28</v>
+        <v>240</v>
+      </c>
+      <c r="J282" t="s">
+        <v>106</v>
       </c>
       <c r="K282" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
     </row>
     <row r="283" spans="3:11">
       <c r="E283" t="s">
-        <v>241</v>
+        <v>49</v>
+      </c>
+      <c r="J283" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="K283" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
     </row>
     <row r="284" spans="3:11">
       <c r="E284" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K284" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="285" spans="3:11">
       <c r="E285" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K285" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="286" spans="3:11">
       <c r="E286" t="s">
+        <v>243</v>
+      </c>
+      <c r="K286" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="287" spans="3:11">
+      <c r="E287" t="s">
         <v>244</v>
       </c>
-      <c r="K286" t="s">
+      <c r="K287" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="287" spans="3:11">
-      <c r="C287" t="s">
+    <row r="288" spans="3:11">
+      <c r="C288" t="s">
         <v>49</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D288" t="s">
         <v>49</v>
       </c>
-      <c r="J287" t="s">
+      <c r="J288" t="s">
         <v>49</v>
       </c>
-      <c r="K287" t="s">
+      <c r="K288" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="288" spans="3:11">
-      <c r="C288" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J288" t="s">
-        <v>83</v>
-      </c>
-      <c r="K288" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="289" spans="2:11">
       <c r="C289" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J289" t="s">
+        <v>83</v>
+      </c>
+      <c r="K289" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="290" spans="2:11">
+      <c r="C290" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D289" s="2" t="s">
+      <c r="D290" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J289" t="s">
+      <c r="J290" t="s">
         <v>84</v>
       </c>
-      <c r="K289" t="s">
+      <c r="K290" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="290" spans="2:11">
-      <c r="J290" t="s">
-        <v>107</v>
-      </c>
-      <c r="K290" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="291" spans="2:11">
       <c r="J291" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K291" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="292" spans="2:11">
       <c r="J292" t="s">
+        <v>108</v>
+      </c>
+      <c r="K292" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="293" spans="2:11">
+      <c r="J293" t="s">
         <v>85</v>
       </c>
-      <c r="K292" t="s">
+      <c r="K293" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="293" spans="2:11">
-      <c r="F293" t="s">
+    <row r="294" spans="2:11">
+      <c r="F294" t="s">
         <v>168</v>
       </c>
-      <c r="I293" t="s">
+      <c r="I294" t="s">
         <v>168</v>
       </c>
-      <c r="J293" t="s">
+      <c r="J294" t="s">
         <v>168</v>
       </c>
-      <c r="K293" t="s">
+      <c r="K294" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="294" spans="2:11">
-      <c r="J294" t="s">
-        <v>109</v>
-      </c>
-      <c r="K294" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="295" spans="2:11">
       <c r="J295" t="s">
+        <v>109</v>
+      </c>
+      <c r="K295" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="296" spans="2:11">
+      <c r="J296" t="s">
         <v>86</v>
       </c>
-      <c r="K295" t="s">
+      <c r="K296" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="296" spans="2:11">
-      <c r="B296" t="s">
-        <v>160</v>
-      </c>
-      <c r="K296" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="297" spans="2:11">
       <c r="B297" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K297" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="298" spans="2:11">
       <c r="B298" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K298" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="299" spans="2:11">
       <c r="B299" t="s">
+        <v>162</v>
+      </c>
+      <c r="K299" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="300" spans="2:11">
+      <c r="B300" t="s">
         <v>27</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C300" t="s">
         <v>27</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D300" t="s">
         <v>27</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E300" t="s">
         <v>27</v>
       </c>
-      <c r="I299" t="s">
+      <c r="I300" t="s">
         <v>27</v>
       </c>
-      <c r="J299" t="s">
+      <c r="J300" t="s">
         <v>27</v>
       </c>
-      <c r="K299" t="s">
+      <c r="K300" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="2:11">
-      <c r="D300" s="2" t="s">
+    <row r="301" spans="2:11">
+      <c r="D301" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J300" t="s">
+      <c r="J301" t="s">
         <v>420</v>
       </c>
-      <c r="K300" t="s">
+      <c r="K301" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="301" spans="2:11">
-      <c r="J301" t="s">
-        <v>87</v>
-      </c>
-      <c r="K301" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="302" spans="2:11">
       <c r="J302" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K302" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="303" spans="2:11">
       <c r="J303" t="s">
+        <v>88</v>
+      </c>
+      <c r="K303" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="304" spans="2:11">
+      <c r="J304" t="s">
         <v>89</v>
       </c>
-      <c r="K303" t="s">
+      <c r="K304" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="304" spans="2:11">
-      <c r="B304" t="s">
-        <v>163</v>
-      </c>
-      <c r="K304" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="305" spans="1:11">
       <c r="B305" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K305" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="306" spans="1:11">
       <c r="B306" t="s">
+        <v>164</v>
+      </c>
+      <c r="K306" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
+      <c r="B307" t="s">
         <v>165</v>
       </c>
-      <c r="K306" t="s">
+      <c r="K307" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
-      <c r="E307" t="s">
+    <row r="308" spans="1:11">
+      <c r="E308" t="s">
         <v>245</v>
       </c>
-      <c r="K307" t="s">
+      <c r="K308" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11">
-      <c r="A308" t="s">
-        <v>284</v>
-      </c>
-      <c r="K308" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K309" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" t="s">
-        <v>397</v>
+        <v>285</v>
       </c>
       <c r="K310" t="s">
-        <v>397</v>
+        <v>285</v>
       </c>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" t="s">
-        <v>286</v>
+        <v>397</v>
       </c>
       <c r="K311" t="s">
-        <v>286</v>
+        <v>397</v>
       </c>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K312" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K313" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K314" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K315" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K316" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="K317" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K318" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K319" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K320" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" t="s">
-        <v>292</v>
+        <v>196</v>
       </c>
       <c r="K321" t="s">
-        <v>292</v>
+        <v>196</v>
       </c>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" t="s">
-        <v>398</v>
+        <v>292</v>
       </c>
       <c r="K322" t="s">
-        <v>398</v>
+        <v>292</v>
       </c>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" t="s">
-        <v>293</v>
+        <v>398</v>
       </c>
       <c r="K323" t="s">
-        <v>293</v>
+        <v>398</v>
       </c>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" t="s">
-        <v>399</v>
+        <v>293</v>
       </c>
       <c r="K324" t="s">
-        <v>399</v>
+        <v>293</v>
       </c>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" t="s">
-        <v>294</v>
+        <v>399</v>
       </c>
       <c r="K325" t="s">
-        <v>294</v>
+        <v>399</v>
       </c>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K326" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K327" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K328" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="K329" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K330" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K331" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K332" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K333" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K334" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K335" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K336" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" t="s">
-        <v>325</v>
+        <v>201</v>
       </c>
       <c r="K337" t="s">
-        <v>325</v>
+        <v>201</v>
       </c>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="K338" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K339" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" t="s">
+        <v>203</v>
+      </c>
+      <c r="K340" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11">
+      <c r="A341" t="s">
         <v>204</v>
       </c>
-      <c r="K340" t="s">
+      <c r="K341" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
-      <c r="A341" s="2" t="s">
+    <row r="342" spans="1:11">
+      <c r="A342" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11">
-      <c r="A342" t="s">
-        <v>205</v>
-      </c>
-      <c r="K342" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" t="s">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c r="K343" t="s">
-        <v>298</v>
+        <v>205</v>
       </c>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K344" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K345" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K346" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K347" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K348" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K349" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K350" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K351" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K352" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" t="s">
-        <v>400</v>
+        <v>307</v>
       </c>
       <c r="K353" t="s">
-        <v>400</v>
+        <v>307</v>
       </c>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K354" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K355" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K356" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" t="s">
-        <v>308</v>
+        <v>403</v>
       </c>
       <c r="K357" t="s">
-        <v>308</v>
+        <v>403</v>
       </c>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K358" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K359" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" t="s">
-        <v>404</v>
+        <v>310</v>
       </c>
       <c r="K360" t="s">
-        <v>404</v>
+        <v>310</v>
       </c>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="K361" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K362" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="K363" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K364" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K365" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K366" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K367" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K368" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="K369" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K370" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K371" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K372" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K373" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" t="s">
+        <v>381</v>
+      </c>
+      <c r="K374" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11">
+      <c r="A375" t="s">
         <v>382</v>
       </c>
-      <c r="K374" t="s">
+      <c r="K375" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="375" spans="1:11">
-      <c r="A375" s="2" t="s">
+    <row r="376" spans="1:11">
+      <c r="A376" s="2" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11">
-      <c r="A376" t="s">
-        <v>383</v>
-      </c>
-      <c r="K376" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="K377" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="K378" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="K379" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K380" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K381" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K382" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="K383" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="K384" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="K385" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K386" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K387" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K388" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="K389" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K390" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K391" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K392" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K393" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K394" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K395" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K396" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="K397" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K398" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="K399" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K400" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K401" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K402" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="K403" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K404" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K405" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K406" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K407" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K408" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K409" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K410" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K411" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K412" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K413" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K414" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K415" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="K416" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
       <c r="K417" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" t="s">
-        <v>329</v>
+        <v>232</v>
       </c>
       <c r="K418" t="s">
-        <v>329</v>
+        <v>232</v>
       </c>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" t="s">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="K419" t="s">
-        <v>218</v>
+        <v>329</v>
       </c>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" t="s">
-        <v>330</v>
+        <v>218</v>
       </c>
       <c r="K420" t="s">
-        <v>330</v>
+        <v>218</v>
       </c>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="K421" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K422" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" t="s">
-        <v>405</v>
+        <v>316</v>
       </c>
       <c r="K423" t="s">
-        <v>405</v>
+        <v>316</v>
       </c>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K424" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K425" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K426" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K427" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" t="s">
-        <v>317</v>
+        <v>409</v>
       </c>
       <c r="K428" t="s">
-        <v>317</v>
+        <v>409</v>
       </c>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K429" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K430" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" t="s">
-        <v>410</v>
+        <v>319</v>
       </c>
       <c r="K431" t="s">
-        <v>410</v>
+        <v>319</v>
       </c>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K432" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K433" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K434" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" t="s">
-        <v>320</v>
+        <v>413</v>
       </c>
       <c r="K435" t="s">
-        <v>320</v>
+        <v>413</v>
       </c>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K436" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K437" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K438" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K439" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="K440" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K441" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" t="s">
+        <v>367</v>
+      </c>
+      <c r="K442" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11">
+      <c r="A443" t="s">
         <v>32</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B443" t="s">
         <v>32</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C443" t="s">
         <v>32</v>
       </c>
-      <c r="D442" t="s">
+      <c r="D443" t="s">
         <v>32</v>
       </c>
-      <c r="E442" t="s">
+      <c r="E443" t="s">
         <v>32</v>
       </c>
-      <c r="F442" t="s">
+      <c r="F443" t="s">
         <v>32</v>
       </c>
-      <c r="G442" t="s">
+      <c r="G443" t="s">
         <v>32</v>
       </c>
-      <c r="H442" t="s">
+      <c r="H443" t="s">
         <v>32</v>
       </c>
-      <c r="I442" t="s">
+      <c r="I443" t="s">
         <v>32</v>
       </c>
-      <c r="J442" t="s">
+      <c r="J443" t="s">
         <v>32</v>
       </c>
-      <c r="K442" t="s">
+      <c r="K443" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Documentacion/FoxPro9_Order_for_Control_Properties.xlsx
+++ b/Documentacion/FoxPro9_Order_for_Control_Properties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="18855" windowHeight="10995" tabRatio="771" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="18855" windowHeight="10995" tabRatio="771" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VFP9_Class_Props" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6031" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6028" uniqueCount="437">
   <si>
     <t>ButtonCount</t>
   </si>
@@ -1959,8 +1959,8 @@
   <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11431,7 +11431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
@@ -19191,11 +19191,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K443"/>
+  <dimension ref="A2:K442"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -19403,21 +19403,33 @@
       <c r="B22" t="s">
         <v>14</v>
       </c>
+      <c r="K22" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="B23" t="s">
         <v>15</v>
       </c>
+      <c r="K23" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="B24" t="s">
         <v>16</v>
       </c>
+      <c r="K24" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="B25" t="s">
         <v>17</v>
       </c>
+      <c r="K25" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="B26" t="s">
@@ -19717,25 +19729,16 @@
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" t="s">
-        <v>124</v>
-      </c>
       <c r="K41" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" t="s">
-        <v>125</v>
-      </c>
       <c r="K42" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" t="s">
-        <v>126</v>
-      </c>
       <c r="D43" s="2" t="s">
         <v>10</v>
       </c>
@@ -19753,6 +19756,9 @@
       </c>
       <c r="J43" s="2" t="s">
         <v>414</v>
+      </c>
+      <c r="K43" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -19861,9 +19867,6 @@
       <c r="J50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2" t="s">
@@ -19887,9 +19890,6 @@
       <c r="J51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="2" t="s">
@@ -19913,9 +19913,6 @@
       <c r="J52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="2" t="s">
@@ -19939,3730 +19936,3722 @@
       <c r="J53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="54" spans="1:11">
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" t="s">
+        <v>38</v>
+      </c>
       <c r="K54" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="B55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="B56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="B57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="B58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="B59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="B60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="B61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="B62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K62" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="B63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="B64" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="H64" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K64" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" t="s">
-        <v>57</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" t="s">
-        <v>57</v>
-      </c>
       <c r="K65" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="K66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:11">
       <c r="K67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="K68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="K69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="K70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="2:11">
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
       <c r="K71" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="2:11">
-      <c r="C72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" t="s">
-        <v>10</v>
+      <c r="H72" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="K72" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="2:11">
       <c r="H73" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="H74" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="K74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="K75" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="2:11">
+      <c r="B76" t="s">
+        <v>132</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="K76" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K77" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K78" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="K79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" t="s">
-        <v>135</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="K80" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="K81" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" t="s">
-        <v>137</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="K82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" t="s">
-        <v>138</v>
+      <c r="J83" t="s">
+        <v>75</v>
       </c>
       <c r="K83" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="2:11">
       <c r="J84" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="K84" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="2:11">
-      <c r="J85" t="s">
-        <v>36</v>
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" t="s">
+        <v>34</v>
       </c>
       <c r="K85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="2:11">
-      <c r="C86" t="s">
-        <v>34</v>
-      </c>
-      <c r="H86" t="s">
-        <v>34</v>
-      </c>
       <c r="I86" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="K86" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="2:11">
-      <c r="I87" t="s">
-        <v>274</v>
+      <c r="C87" t="s">
+        <v>56</v>
+      </c>
+      <c r="J87" t="s">
+        <v>56</v>
       </c>
       <c r="K87" t="s">
-        <v>274</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="2:11">
       <c r="C88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="C89" t="s">
-        <v>55</v>
-      </c>
-      <c r="J89" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K89" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="2:11">
       <c r="C90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="2:11">
       <c r="C91" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K91" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="2:11">
-      <c r="C92" t="s">
-        <v>60</v>
+      <c r="B92" t="s">
+        <v>139</v>
       </c>
       <c r="K92" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" t="s">
-        <v>139</v>
-      </c>
-      <c r="K93" t="s">
-        <v>139</v>
+      <c r="B93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="J94" t="s">
+        <v>268</v>
+      </c>
+      <c r="K94" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J95" t="s">
-        <v>268</v>
-      </c>
-      <c r="K95" t="s">
-        <v>268</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="2" t="s">
-        <v>19</v>
+      <c r="B96" t="s">
+        <v>140</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
+      </c>
+      <c r="K96" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="2:11">
-      <c r="B97" t="s">
-        <v>140</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>417</v>
+      <c r="E97" t="s">
+        <v>246</v>
       </c>
       <c r="K97" t="s">
-        <v>140</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="E98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="2:11">
+      <c r="C99" t="s">
+        <v>51</v>
+      </c>
       <c r="E99" t="s">
-        <v>247</v>
+        <v>51</v>
+      </c>
+      <c r="J99" t="s">
+        <v>51</v>
       </c>
       <c r="K99" t="s">
-        <v>247</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="2:11">
-      <c r="C100" t="s">
-        <v>51</v>
-      </c>
-      <c r="E100" t="s">
-        <v>51</v>
-      </c>
       <c r="J100" t="s">
-        <v>51</v>
+        <v>269</v>
       </c>
       <c r="K100" t="s">
-        <v>51</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="J101" t="s">
-        <v>269</v>
+        <v>63</v>
       </c>
       <c r="K101" t="s">
-        <v>269</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="2:11">
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" t="s">
+        <v>11</v>
+      </c>
       <c r="J102" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="K102" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="2:11">
       <c r="C103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="2:11">
-      <c r="C104" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" t="s">
-        <v>12</v>
-      </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I104" t="s">
-        <v>12</v>
-      </c>
-      <c r="J104" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="K104" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="2:11">
-      <c r="F105" t="s">
-        <v>170</v>
-      </c>
-      <c r="I105" t="s">
-        <v>170</v>
+      <c r="J105" t="s">
+        <v>90</v>
       </c>
       <c r="K105" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="2:11">
-      <c r="J106" t="s">
-        <v>90</v>
+      <c r="F106" t="s">
+        <v>171</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K106" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="2:11">
-      <c r="F107" t="s">
-        <v>171</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>34</v>
+      <c r="J107" t="s">
+        <v>91</v>
       </c>
       <c r="K107" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="2:11">
+      <c r="C108" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" t="s">
+        <v>37</v>
+      </c>
       <c r="J108" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="K108" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="2:11">
-      <c r="C109" t="s">
-        <v>37</v>
-      </c>
       <c r="E109" t="s">
-        <v>37</v>
-      </c>
-      <c r="J109" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="K109" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="2:11">
       <c r="E110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="2:11">
-      <c r="E111" t="s">
-        <v>249</v>
+      <c r="B111" t="s">
+        <v>141</v>
+      </c>
+      <c r="F111" t="s">
+        <v>141</v>
+      </c>
+      <c r="I111" t="s">
+        <v>141</v>
       </c>
       <c r="K111" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="2:11">
       <c r="B112" t="s">
-        <v>141</v>
-      </c>
-      <c r="F112" t="s">
-        <v>141</v>
-      </c>
-      <c r="I112" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K112" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" t="s">
-        <v>142</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="K113" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" t="s">
-        <v>143</v>
+      <c r="B114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J114" t="s">
+        <v>92</v>
       </c>
       <c r="K114" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="2:11">
-      <c r="B115" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="J115" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K115" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="J116" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K116" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="2:11">
       <c r="J117" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K117" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="2:11">
       <c r="J118" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K118" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="2:11">
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1</v>
+      </c>
       <c r="J119" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="2:11">
       <c r="C120" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" t="s">
+        <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K120" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="2:11">
-      <c r="C121" t="s">
-        <v>3</v>
-      </c>
       <c r="D121" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E121" t="s">
-        <v>3</v>
-      </c>
-      <c r="G121" t="s">
-        <v>3</v>
-      </c>
-      <c r="J121" t="s">
-        <v>3</v>
+        <v>250</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="K121" t="s">
-        <v>3</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="2:11">
-      <c r="D122" t="s">
-        <v>36</v>
+      <c r="D122" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E122" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="K122" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="2:11">
       <c r="D123" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E123" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K123" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="124" spans="2:11">
       <c r="D124" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E124" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K124" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="2:11">
-      <c r="D125" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E125" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="K125" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="2:11">
       <c r="E126" t="s">
-        <v>218</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="K126" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="2:11">
-      <c r="E127" t="s">
-        <v>219</v>
+      <c r="D127" t="s">
+        <v>111</v>
       </c>
       <c r="K127" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="2:11">
-      <c r="D128" t="s">
-        <v>111</v>
-      </c>
-      <c r="K128" t="s">
-        <v>111</v>
+      <c r="D128" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="2:11">
-      <c r="D129" s="2" t="s">
-        <v>37</v>
+      <c r="D129" t="s">
+        <v>112</v>
+      </c>
+      <c r="K129" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="2:11">
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
       <c r="D130" t="s">
-        <v>112</v>
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" t="s">
+        <v>13</v>
+      </c>
+      <c r="J130" t="s">
+        <v>13</v>
       </c>
       <c r="K130" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="2:11">
-      <c r="B131" t="s">
-        <v>13</v>
-      </c>
-      <c r="C131" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" t="s">
-        <v>13</v>
+      <c r="C131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I131" t="s">
-        <v>13</v>
-      </c>
-      <c r="J131" t="s">
-        <v>13</v>
+        <v>368</v>
       </c>
       <c r="K131" t="s">
-        <v>13</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="2:11">
-      <c r="C132" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I132" t="s">
-        <v>368</v>
+      <c r="F132" t="s">
+        <v>144</v>
       </c>
       <c r="K132" t="s">
-        <v>368</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="2:11">
-      <c r="F133" t="s">
-        <v>144</v>
+      <c r="B133" t="s">
+        <v>145</v>
       </c>
       <c r="K133" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="B134" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K134" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" t="s">
-        <v>146</v>
-      </c>
-      <c r="K135" t="s">
-        <v>146</v>
+      <c r="B135" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="2:11">
-      <c r="B137" s="2" t="s">
-        <v>48</v>
+      <c r="B137" t="s">
+        <v>147</v>
+      </c>
+      <c r="K137" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="2:11">
       <c r="B138" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K138" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="B139" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K139" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="2:11">
       <c r="B140" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K140" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="2:11">
       <c r="B141" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K141" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="2:11">
       <c r="B142" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K142" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="2:11">
       <c r="B143" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K143" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="2:11">
       <c r="B144" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K144" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="2:11">
-      <c r="B145" t="s">
-        <v>154</v>
-      </c>
-      <c r="K145" t="s">
-        <v>154</v>
+      <c r="E145" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="2:11">
-      <c r="E146" s="2" t="s">
-        <v>132</v>
+      <c r="E146" t="s">
+        <v>251</v>
+      </c>
+      <c r="K146" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="147" spans="2:11">
       <c r="E147" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="K147" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
     </row>
     <row r="148" spans="2:11">
       <c r="E148" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K148" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="149" spans="2:11">
       <c r="E149" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K149" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="150" spans="2:11">
-      <c r="E150" t="s">
-        <v>222</v>
+      <c r="E150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>96</v>
       </c>
       <c r="K150" t="s">
-        <v>222</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="2:11">
-      <c r="E151" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J151" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K151" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="152" spans="2:11">
+      <c r="B152" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" t="s">
+        <v>23</v>
+      </c>
+      <c r="E152" t="s">
+        <v>23</v>
+      </c>
+      <c r="F152" t="s">
+        <v>23</v>
+      </c>
+      <c r="G152" t="s">
+        <v>23</v>
+      </c>
+      <c r="H152" t="s">
+        <v>23</v>
+      </c>
+      <c r="I152" t="s">
+        <v>23</v>
+      </c>
       <c r="J152" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K152" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="2:11">
       <c r="B153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="2:11">
       <c r="B154" t="s">
-        <v>24</v>
-      </c>
-      <c r="C154" t="s">
-        <v>24</v>
-      </c>
-      <c r="D154" t="s">
-        <v>24</v>
-      </c>
-      <c r="E154" t="s">
-        <v>24</v>
-      </c>
-      <c r="F154" t="s">
-        <v>24</v>
-      </c>
-      <c r="G154" t="s">
-        <v>24</v>
-      </c>
-      <c r="H154" t="s">
-        <v>24</v>
-      </c>
-      <c r="I154" t="s">
-        <v>24</v>
-      </c>
-      <c r="J154" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="K154" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="2:11">
       <c r="B155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="2:11">
       <c r="B156" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="K156" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="2:11">
       <c r="B157" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="K157" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="2:11">
       <c r="B158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="2:11">
-      <c r="B159" t="s">
-        <v>158</v>
+      <c r="E159" t="s">
+        <v>223</v>
       </c>
       <c r="K159" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
     </row>
     <row r="160" spans="2:11">
       <c r="E160" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K160" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="161" spans="3:11">
       <c r="E161" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K161" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="162" spans="3:11">
-      <c r="E162" t="s">
-        <v>225</v>
+      <c r="I162" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J162" t="s">
+        <v>72</v>
       </c>
       <c r="K162" t="s">
-        <v>225</v>
+        <v>72</v>
       </c>
     </row>
     <row r="163" spans="3:11">
-      <c r="I163" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="J163" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K163" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="164" spans="3:11">
+      <c r="I164" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="J164" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K164" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="3:11">
-      <c r="I165" s="2" t="s">
-        <v>150</v>
+      <c r="C165" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J165" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="K165" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="3:11">
-      <c r="C166" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="J166" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="K166" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167" spans="3:11">
       <c r="J167" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="K167" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="3:11">
       <c r="J168" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K168" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="3:11">
-      <c r="J169" t="s">
-        <v>187</v>
+      <c r="G169" t="s">
+        <v>276</v>
       </c>
       <c r="K169" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
     </row>
     <row r="170" spans="3:11">
       <c r="G170" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K170" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="3:11">
       <c r="G171" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K171" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="172" spans="3:11">
-      <c r="G172" t="s">
-        <v>278</v>
+      <c r="E172" t="s">
+        <v>226</v>
       </c>
       <c r="K172" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
     </row>
     <row r="173" spans="3:11">
-      <c r="E173" t="s">
-        <v>226</v>
+      <c r="J173" t="s">
+        <v>74</v>
       </c>
       <c r="K173" t="s">
-        <v>226</v>
+        <v>74</v>
       </c>
     </row>
     <row r="174" spans="3:11">
       <c r="J174" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K174" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="175" spans="3:11">
+      <c r="C175" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175" t="s">
+        <v>18</v>
+      </c>
+      <c r="F175" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" t="s">
+        <v>18</v>
+      </c>
       <c r="J175" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="K175" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="3:11">
       <c r="C176" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D176" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E176" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I176" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J176" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K176" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="177" spans="3:11">
-      <c r="C177" t="s">
         <v>35</v>
       </c>
-      <c r="D177" t="s">
-        <v>35</v>
-      </c>
+    </row>
+    <row r="177" spans="5:11">
       <c r="E177" t="s">
-        <v>35</v>
-      </c>
-      <c r="F177" t="s">
-        <v>35</v>
-      </c>
-      <c r="I177" t="s">
-        <v>35</v>
-      </c>
-      <c r="J177" t="s">
-        <v>35</v>
+        <v>227</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="K177" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="178" spans="3:11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="178" spans="5:11">
       <c r="E178" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K178" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="179" spans="3:11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="179" spans="5:11">
       <c r="E179" t="s">
-        <v>228</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>124</v>
+        <v>64</v>
+      </c>
+      <c r="J179" t="s">
+        <v>64</v>
       </c>
       <c r="K179" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="180" spans="3:11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" spans="5:11">
       <c r="E180" t="s">
-        <v>64</v>
-      </c>
-      <c r="J180" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="K180" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="181" spans="3:11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="181" spans="5:11">
       <c r="E181" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K181" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="182" spans="3:11">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="182" spans="5:11">
       <c r="E182" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K182" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="183" spans="3:11">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="183" spans="5:11">
       <c r="E183" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K183" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="184" spans="3:11">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="184" spans="5:11">
       <c r="E184" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K184" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="185" spans="3:11">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="185" spans="5:11">
       <c r="E185" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="K185" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="186" spans="3:11">
-      <c r="E186" t="s">
         <v>252</v>
       </c>
-      <c r="K186" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="187" spans="3:11">
-      <c r="E187" s="2" t="s">
+    </row>
+    <row r="186" spans="5:11">
+      <c r="E186" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F187" s="2" t="s">
+      <c r="F186" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="3:11">
+    <row r="187" spans="5:11">
+      <c r="E187" t="s">
+        <v>76</v>
+      </c>
+      <c r="K187" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188" spans="5:11">
       <c r="E188" t="s">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="K188" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="189" spans="3:11">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="189" spans="5:11">
       <c r="E189" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K189" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="190" spans="3:11">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="190" spans="5:11">
       <c r="E190" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K190" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="191" spans="3:11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="191" spans="5:11">
       <c r="E191" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K191" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="192" spans="3:11">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="192" spans="5:11">
       <c r="E192" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K192" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="193" spans="5:11">
       <c r="E193" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K193" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="194" spans="5:11">
       <c r="E194" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K194" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="195" spans="5:11">
       <c r="E195" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K195" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="196" spans="5:11">
       <c r="E196" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K196" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="197" spans="5:11">
       <c r="E197" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K197" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="198" spans="5:11">
       <c r="E198" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K198" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="199" spans="5:11">
       <c r="E199" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K199" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200" spans="5:11">
       <c r="E200" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K200" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="201" spans="5:11">
-      <c r="E201" t="s">
-        <v>265</v>
-      </c>
-      <c r="K201" t="s">
-        <v>265</v>
+      <c r="E201" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="202" spans="5:11">
       <c r="E202" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="203" spans="5:11">
-      <c r="E203" s="2" t="s">
-        <v>73</v>
+      <c r="J203" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="204" spans="5:11">
-      <c r="J204" s="2" t="s">
-        <v>121</v>
+      <c r="J204" t="s">
+        <v>418</v>
+      </c>
+      <c r="K204" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="205" spans="5:11">
       <c r="J205" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K205" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="206" spans="5:11">
       <c r="J206" t="s">
-        <v>419</v>
+        <v>99</v>
       </c>
       <c r="K206" t="s">
-        <v>419</v>
+        <v>99</v>
       </c>
     </row>
     <row r="207" spans="5:11">
       <c r="J207" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="K207" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="208" spans="5:11">
       <c r="J208" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="K208" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="209" spans="3:11">
+      <c r="C209" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209" t="s">
+        <v>22</v>
+      </c>
+      <c r="F209" t="s">
+        <v>22</v>
+      </c>
       <c r="J209" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="K209" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="3:11">
-      <c r="C210" t="s">
-        <v>22</v>
-      </c>
-      <c r="D210" t="s">
-        <v>22</v>
-      </c>
-      <c r="F210" t="s">
-        <v>22</v>
-      </c>
-      <c r="J210" t="s">
-        <v>22</v>
+      <c r="H210" t="s">
+        <v>271</v>
       </c>
       <c r="K210" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
     </row>
     <row r="211" spans="3:11">
       <c r="H211" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="K211" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
     </row>
     <row r="212" spans="3:11">
-      <c r="H212" t="s">
-        <v>183</v>
+      <c r="J212" t="s">
+        <v>188</v>
       </c>
       <c r="K212" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="213" spans="3:11">
       <c r="J213" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K213" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="214" spans="3:11">
+      <c r="C214" t="s">
+        <v>29</v>
+      </c>
       <c r="J214" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="K214" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
     </row>
     <row r="215" spans="3:11">
       <c r="C215" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="D215" t="s">
+        <v>61</v>
       </c>
       <c r="J215" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="K215" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="216" spans="3:11">
       <c r="C216" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D216" t="s">
-        <v>61</v>
+        <v>21</v>
+      </c>
+      <c r="I216" t="s">
+        <v>21</v>
       </c>
       <c r="J216" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K216" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="217" spans="3:11">
       <c r="C217" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D217" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I217" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="J217" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="K217" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="218" spans="3:11">
       <c r="C218" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D218" t="s">
-        <v>48</v>
-      </c>
-      <c r="I218" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="J218" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="K218" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219" spans="3:11">
       <c r="C219" t="s">
-        <v>30</v>
-      </c>
-      <c r="D219" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J219" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K219" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="3:11">
-      <c r="C220" t="s">
-        <v>31</v>
-      </c>
-      <c r="J220" t="s">
-        <v>31</v>
-      </c>
-      <c r="K220" t="s">
-        <v>31</v>
+      <c r="C220" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="3:11">
       <c r="C221" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" spans="3:11">
-      <c r="C222" s="2" t="s">
-        <v>17</v>
+      <c r="C222" t="s">
+        <v>36</v>
+      </c>
+      <c r="K222" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="223" spans="3:11">
-      <c r="C223" t="s">
-        <v>36</v>
+      <c r="I223" t="s">
+        <v>275</v>
       </c>
       <c r="K223" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
     </row>
     <row r="224" spans="3:11">
       <c r="I224" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K224" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="225" spans="2:11">
       <c r="I225" t="s">
-        <v>281</v>
+        <v>125</v>
       </c>
       <c r="K225" t="s">
-        <v>281</v>
+        <v>125</v>
       </c>
     </row>
     <row r="226" spans="2:11">
       <c r="I226" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="K226" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
     </row>
     <row r="227" spans="2:11">
+      <c r="C227" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" t="s">
+        <v>19</v>
+      </c>
       <c r="I227" t="s">
-        <v>206</v>
+        <v>19</v>
+      </c>
+      <c r="J227" t="s">
+        <v>19</v>
       </c>
       <c r="K227" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="2:11">
-      <c r="C228" t="s">
-        <v>19</v>
-      </c>
-      <c r="D228" t="s">
-        <v>19</v>
-      </c>
-      <c r="I228" t="s">
-        <v>19</v>
+      <c r="C228" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J228" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="K228" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="229" spans="2:11">
-      <c r="C229" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="J229" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K229" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="230" spans="2:11">
       <c r="J230" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K230" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="231" spans="2:11">
       <c r="J231" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K231" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232" spans="2:11">
+      <c r="D232" t="s">
+        <v>59</v>
+      </c>
       <c r="J232" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="K232" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="233" spans="2:11">
       <c r="D233" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J233" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K233" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="234" spans="2:11">
       <c r="D234" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J234" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K234" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="235" spans="2:11">
-      <c r="D235" t="s">
-        <v>60</v>
-      </c>
-      <c r="J235" t="s">
-        <v>60</v>
+      <c r="I235" t="s">
+        <v>174</v>
       </c>
       <c r="K235" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
     </row>
     <row r="236" spans="2:11">
+      <c r="B236" t="s">
+        <v>25</v>
+      </c>
+      <c r="C236" t="s">
+        <v>25</v>
+      </c>
+      <c r="D236" t="s">
+        <v>25</v>
+      </c>
+      <c r="F236" t="s">
+        <v>25</v>
+      </c>
+      <c r="H236" t="s">
+        <v>25</v>
+      </c>
       <c r="I236" t="s">
-        <v>174</v>
+        <v>25</v>
+      </c>
+      <c r="J236" t="s">
+        <v>25</v>
       </c>
       <c r="K236" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
     </row>
     <row r="237" spans="2:11">
-      <c r="B237" t="s">
-        <v>25</v>
-      </c>
       <c r="C237" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D237" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F237" t="s">
-        <v>25</v>
-      </c>
-      <c r="H237" t="s">
-        <v>25</v>
-      </c>
-      <c r="I237" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J237" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K237" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="238" spans="2:11">
+      <c r="B238" t="s">
+        <v>50</v>
+      </c>
       <c r="C238" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D238" t="s">
-        <v>52</v>
-      </c>
-      <c r="F238" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="E238" t="s">
+        <v>50</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I238" t="s">
+        <v>50</v>
       </c>
       <c r="J238" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K238" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="239" spans="2:11">
       <c r="B239" t="s">
+        <v>26</v>
+      </c>
+      <c r="C239" t="s">
+        <v>26</v>
+      </c>
+      <c r="D239" t="s">
+        <v>26</v>
+      </c>
+      <c r="E239" t="s">
+        <v>26</v>
+      </c>
+      <c r="F239" t="s">
+        <v>26</v>
+      </c>
+      <c r="H239" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C239" t="s">
-        <v>50</v>
-      </c>
-      <c r="D239" t="s">
-        <v>50</v>
-      </c>
-      <c r="E239" t="s">
-        <v>50</v>
-      </c>
-      <c r="H239" s="2" t="s">
+      <c r="I239" t="s">
         <v>26</v>
       </c>
-      <c r="I239" t="s">
-        <v>50</v>
-      </c>
       <c r="J239" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="K239" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="240" spans="2:11">
       <c r="B240" t="s">
-        <v>26</v>
-      </c>
-      <c r="C240" t="s">
-        <v>26</v>
-      </c>
-      <c r="D240" t="s">
-        <v>26</v>
-      </c>
-      <c r="E240" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="F240" t="s">
-        <v>26</v>
-      </c>
-      <c r="H240" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I240" t="s">
-        <v>26</v>
-      </c>
-      <c r="J240" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="K240" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="241" spans="2:11">
-      <c r="B241" t="s">
         <v>159</v>
       </c>
+    </row>
+    <row r="241" spans="3:11">
+      <c r="C241" t="s">
+        <v>436</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
       <c r="F241" t="s">
-        <v>159</v>
+        <v>28</v>
+      </c>
+      <c r="I241" t="s">
+        <v>28</v>
       </c>
       <c r="K241" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="242" spans="2:11">
-      <c r="C242" t="s">
-        <v>436</v>
-      </c>
-      <c r="D242" t="s">
         <v>28</v>
       </c>
-      <c r="F242" t="s">
-        <v>28</v>
-      </c>
-      <c r="I242" t="s">
-        <v>28</v>
-      </c>
-      <c r="K242" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="243" spans="2:11">
-      <c r="E243" s="2" t="s">
+    </row>
+    <row r="242" spans="3:11">
+      <c r="E242" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F243" s="2" t="s">
+      <c r="F242" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I243" s="2" t="s">
+      <c r="I242" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="244" spans="2:11">
-      <c r="E244" t="s">
+    <row r="243" spans="3:11">
+      <c r="E243" t="s">
         <v>36</v>
       </c>
-      <c r="K244" t="s">
+      <c r="K243" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="245" spans="2:11">
-      <c r="E245" s="2" t="s">
+    <row r="244" spans="3:11">
+      <c r="E244" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H245" s="2" t="s">
+      <c r="H244" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="2:11">
-      <c r="E246" t="s">
+    <row r="245" spans="3:11">
+      <c r="E245" t="s">
         <v>234</v>
       </c>
-      <c r="K246" t="s">
+      <c r="K245" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="247" spans="2:11">
+    <row r="246" spans="3:11">
+      <c r="E246" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="247" spans="3:11">
       <c r="E247" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248" spans="3:11">
+      <c r="E248" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="249" spans="3:11">
+      <c r="E249" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="250" spans="3:11">
+      <c r="E250" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="3:11">
+      <c r="E251" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="3:11">
+      <c r="E252" t="s">
+        <v>235</v>
+      </c>
+      <c r="K252" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="253" spans="3:11">
+      <c r="E253" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="254" spans="3:11">
+      <c r="E254" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="255" spans="3:11">
+      <c r="I255" t="s">
+        <v>207</v>
+      </c>
+      <c r="K255" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="256" spans="3:11">
+      <c r="I256" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="257" spans="3:11">
+      <c r="I257" t="s">
+        <v>208</v>
+      </c>
+      <c r="K257" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="258" spans="3:11">
+      <c r="I258" t="s">
+        <v>209</v>
+      </c>
+      <c r="K258" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="259" spans="3:11">
+      <c r="I259" t="s">
+        <v>210</v>
+      </c>
+      <c r="K259" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="260" spans="3:11">
+      <c r="I260" t="s">
+        <v>211</v>
+      </c>
+      <c r="K260" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="261" spans="3:11">
+      <c r="I261" t="s">
+        <v>212</v>
+      </c>
+      <c r="K261" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="262" spans="3:11">
+      <c r="G262" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I262" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="263" spans="3:11">
+      <c r="G263" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="248" spans="2:11">
-      <c r="E248" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="249" spans="2:11">
-      <c r="E249" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="250" spans="2:11">
-      <c r="E250" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="251" spans="2:11">
-      <c r="E251" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="252" spans="2:11">
-      <c r="E252" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="2:11">
-      <c r="E253" t="s">
-        <v>235</v>
-      </c>
-      <c r="K253" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="254" spans="2:11">
-      <c r="E254" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I254" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="255" spans="2:11">
-      <c r="E255" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I255" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="256" spans="2:11">
-      <c r="I256" t="s">
-        <v>207</v>
-      </c>
-      <c r="K256" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="257" spans="5:11">
-      <c r="I257" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="258" spans="5:11">
-      <c r="I258" t="s">
-        <v>208</v>
-      </c>
-      <c r="K258" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="259" spans="5:11">
-      <c r="I259" t="s">
-        <v>209</v>
-      </c>
-      <c r="K259" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="260" spans="5:11">
-      <c r="I260" t="s">
-        <v>210</v>
-      </c>
-      <c r="K260" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="261" spans="5:11">
-      <c r="I261" t="s">
-        <v>211</v>
-      </c>
-      <c r="K261" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="262" spans="5:11">
-      <c r="I262" t="s">
-        <v>212</v>
-      </c>
-      <c r="K262" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="263" spans="5:11">
-      <c r="G263" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H263" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="264" spans="5:11">
-      <c r="G264" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H264" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I264" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="265" spans="5:11">
-      <c r="F265" t="s">
+    </row>
+    <row r="264" spans="3:11">
+      <c r="F264" t="s">
         <v>172</v>
       </c>
-      <c r="I265" t="s">
+      <c r="I264" t="s">
         <v>172</v>
       </c>
+      <c r="K264" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="265" spans="3:11">
+      <c r="E265" t="s">
+        <v>236</v>
+      </c>
       <c r="K265" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="266" spans="5:11">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="266" spans="3:11">
       <c r="E266" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K266" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="267" spans="5:11">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="267" spans="3:11">
       <c r="E267" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K267" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="268" spans="5:11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="268" spans="3:11">
       <c r="E268" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K268" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="269" spans="5:11">
-      <c r="E269" t="s">
         <v>239</v>
       </c>
+    </row>
+    <row r="269" spans="3:11">
+      <c r="J269" t="s">
+        <v>101</v>
+      </c>
       <c r="K269" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="270" spans="5:11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="270" spans="3:11">
       <c r="J270" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K270" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="271" spans="5:11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="271" spans="3:11">
       <c r="J271" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K271" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="272" spans="5:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="272" spans="3:11">
+      <c r="C272" t="s">
+        <v>54</v>
+      </c>
+      <c r="D272" t="s">
+        <v>54</v>
+      </c>
       <c r="J272" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="K272" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
     <row r="273" spans="3:11">
       <c r="C273" t="s">
+        <v>53</v>
+      </c>
+      <c r="D273" t="s">
+        <v>53</v>
+      </c>
+      <c r="J273" t="s">
+        <v>81</v>
+      </c>
+      <c r="K273" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="274" spans="3:11">
+      <c r="J274" t="s">
         <v>54</v>
       </c>
-      <c r="D273" t="s">
+      <c r="K274" t="s">
         <v>54</v>
-      </c>
-      <c r="J273" t="s">
-        <v>53</v>
-      </c>
-      <c r="K273" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="274" spans="3:11">
-      <c r="C274" t="s">
-        <v>53</v>
-      </c>
-      <c r="D274" t="s">
-        <v>53</v>
-      </c>
-      <c r="J274" t="s">
-        <v>81</v>
-      </c>
-      <c r="K274" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="275" spans="3:11">
       <c r="J275" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="K275" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="276" spans="3:11">
       <c r="J276" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="K276" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="277" spans="3:11">
       <c r="J277" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K277" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="278" spans="3:11">
       <c r="J278" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K278" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="279" spans="3:11">
+      <c r="E279" t="s">
+        <v>105</v>
+      </c>
       <c r="J279" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K279" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="280" spans="3:11">
       <c r="E280" t="s">
+        <v>103</v>
+      </c>
+      <c r="J280" t="s">
         <v>105</v>
       </c>
-      <c r="J280" t="s">
-        <v>103</v>
-      </c>
       <c r="K280" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="281" spans="3:11">
       <c r="E281" t="s">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c r="J281" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K281" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="282" spans="3:11">
       <c r="E282" t="s">
-        <v>240</v>
-      </c>
-      <c r="J282" t="s">
-        <v>106</v>
+        <v>49</v>
+      </c>
+      <c r="J282" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="K282" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
     </row>
     <row r="283" spans="3:11">
       <c r="E283" t="s">
-        <v>49</v>
-      </c>
-      <c r="J283" s="2" t="s">
-        <v>28</v>
+        <v>241</v>
       </c>
       <c r="K283" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
     </row>
     <row r="284" spans="3:11">
       <c r="E284" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K284" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="285" spans="3:11">
       <c r="E285" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K285" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="286" spans="3:11">
       <c r="E286" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K286" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="287" spans="3:11">
-      <c r="E287" t="s">
-        <v>244</v>
+      <c r="C287" t="s">
+        <v>49</v>
+      </c>
+      <c r="D287" t="s">
+        <v>49</v>
+      </c>
+      <c r="J287" t="s">
+        <v>49</v>
       </c>
       <c r="K287" t="s">
-        <v>244</v>
+        <v>49</v>
       </c>
     </row>
     <row r="288" spans="3:11">
-      <c r="C288" t="s">
-        <v>49</v>
-      </c>
-      <c r="D288" t="s">
-        <v>49</v>
+      <c r="C288" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="J288" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="K288" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="289" spans="2:11">
       <c r="C289" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J289" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K289" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="290" spans="2:11">
-      <c r="C290" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="J290" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="K290" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="291" spans="2:11">
       <c r="J291" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K291" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="292" spans="2:11">
       <c r="J292" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="K292" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="293" spans="2:11">
+      <c r="F293" t="s">
+        <v>168</v>
+      </c>
+      <c r="I293" t="s">
+        <v>168</v>
+      </c>
       <c r="J293" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="K293" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
     </row>
     <row r="294" spans="2:11">
-      <c r="F294" t="s">
-        <v>168</v>
-      </c>
-      <c r="I294" t="s">
-        <v>168</v>
-      </c>
       <c r="J294" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="K294" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
     </row>
     <row r="295" spans="2:11">
       <c r="J295" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="K295" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="296" spans="2:11">
-      <c r="J296" t="s">
-        <v>86</v>
+      <c r="B296" t="s">
+        <v>160</v>
       </c>
       <c r="K296" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
     </row>
     <row r="297" spans="2:11">
       <c r="B297" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K297" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="298" spans="2:11">
       <c r="B298" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K298" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="299" spans="2:11">
       <c r="B299" t="s">
-        <v>162</v>
+        <v>27</v>
+      </c>
+      <c r="C299" t="s">
+        <v>27</v>
+      </c>
+      <c r="D299" t="s">
+        <v>27</v>
+      </c>
+      <c r="E299" t="s">
+        <v>27</v>
+      </c>
+      <c r="I299" t="s">
+        <v>27</v>
+      </c>
+      <c r="J299" t="s">
+        <v>27</v>
       </c>
       <c r="K299" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
     </row>
     <row r="300" spans="2:11">
-      <c r="B300" t="s">
-        <v>27</v>
-      </c>
-      <c r="C300" t="s">
-        <v>27</v>
-      </c>
-      <c r="D300" t="s">
-        <v>27</v>
-      </c>
-      <c r="E300" t="s">
-        <v>27</v>
-      </c>
-      <c r="I300" t="s">
-        <v>27</v>
+      <c r="D300" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="J300" t="s">
-        <v>27</v>
+        <v>420</v>
       </c>
       <c r="K300" t="s">
-        <v>27</v>
+        <v>420</v>
       </c>
     </row>
     <row r="301" spans="2:11">
-      <c r="D301" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="J301" t="s">
-        <v>420</v>
+        <v>87</v>
       </c>
       <c r="K301" t="s">
-        <v>420</v>
+        <v>87</v>
       </c>
     </row>
     <row r="302" spans="2:11">
       <c r="J302" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K302" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="303" spans="2:11">
       <c r="J303" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K303" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="304" spans="2:11">
-      <c r="J304" t="s">
-        <v>89</v>
+      <c r="B304" t="s">
+        <v>163</v>
       </c>
       <c r="K304" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
     </row>
     <row r="305" spans="1:11">
       <c r="B305" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K305" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="306" spans="1:11">
       <c r="B306" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K306" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="307" spans="1:11">
-      <c r="B307" t="s">
-        <v>165</v>
+      <c r="E307" t="s">
+        <v>245</v>
       </c>
       <c r="K307" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
     </row>
     <row r="308" spans="1:11">
-      <c r="E308" t="s">
-        <v>245</v>
+      <c r="A308" t="s">
+        <v>284</v>
       </c>
       <c r="K308" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K309" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" t="s">
-        <v>285</v>
+        <v>397</v>
       </c>
       <c r="K310" t="s">
-        <v>285</v>
+        <v>397</v>
       </c>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" t="s">
-        <v>397</v>
+        <v>286</v>
       </c>
       <c r="K311" t="s">
-        <v>397</v>
+        <v>286</v>
       </c>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K312" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K313" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K314" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K315" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K316" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" t="s">
-        <v>291</v>
+        <v>198</v>
       </c>
       <c r="K317" t="s">
-        <v>291</v>
+        <v>198</v>
       </c>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K318" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K319" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K320" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="K321" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" t="s">
-        <v>292</v>
+        <v>398</v>
       </c>
       <c r="K322" t="s">
-        <v>292</v>
+        <v>398</v>
       </c>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" t="s">
-        <v>398</v>
+        <v>293</v>
       </c>
       <c r="K323" t="s">
-        <v>398</v>
+        <v>293</v>
       </c>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" t="s">
-        <v>293</v>
+        <v>399</v>
       </c>
       <c r="K324" t="s">
-        <v>293</v>
+        <v>399</v>
       </c>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" t="s">
-        <v>399</v>
+        <v>294</v>
       </c>
       <c r="K325" t="s">
-        <v>399</v>
+        <v>294</v>
       </c>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K326" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K327" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K328" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" t="s">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c r="K329" t="s">
-        <v>297</v>
+        <v>191</v>
       </c>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K330" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K331" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K332" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K333" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K334" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K335" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K336" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" t="s">
-        <v>201</v>
+        <v>325</v>
       </c>
       <c r="K337" t="s">
-        <v>201</v>
+        <v>325</v>
       </c>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="K338" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K339" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K340" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="341" spans="1:11">
-      <c r="A341" t="s">
-        <v>204</v>
-      </c>
-      <c r="K341" t="s">
-        <v>204</v>
+      <c r="A341" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="342" spans="1:11">
-      <c r="A342" s="2" t="s">
-        <v>64</v>
+      <c r="A342" t="s">
+        <v>205</v>
+      </c>
+      <c r="K342" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="K343" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K344" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K345" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K346" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K347" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K348" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K349" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K350" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K351" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K352" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" t="s">
-        <v>307</v>
+        <v>400</v>
       </c>
       <c r="K353" t="s">
-        <v>307</v>
+        <v>400</v>
       </c>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K354" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K355" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K356" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" t="s">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="K357" t="s">
-        <v>403</v>
+        <v>308</v>
       </c>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K358" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K359" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" t="s">
-        <v>310</v>
+        <v>404</v>
       </c>
       <c r="K360" t="s">
-        <v>310</v>
+        <v>404</v>
       </c>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="K361" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K362" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="K363" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K364" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K365" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K366" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K367" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K368" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="K369" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K370" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K371" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K372" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K373" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K374" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="375" spans="1:11">
-      <c r="A375" t="s">
-        <v>382</v>
-      </c>
-      <c r="K375" t="s">
-        <v>382</v>
+      <c r="A375" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="376" spans="1:11">
-      <c r="A376" s="2" t="s">
-        <v>75</v>
+      <c r="A376" t="s">
+        <v>383</v>
+      </c>
+      <c r="K376" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="K377" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="K378" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="K379" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K380" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K381" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K382" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="K383" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="K384" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="K385" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K386" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K387" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K388" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="K389" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K390" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K391" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K392" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K393" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K394" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K395" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K396" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="K397" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K398" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="K399" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K400" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K401" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K402" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="K403" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K404" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K405" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K406" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K407" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K408" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K409" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K410" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K411" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K412" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K413" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K414" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K415" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="K416" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" t="s">
-        <v>328</v>
+        <v>232</v>
       </c>
       <c r="K417" t="s">
-        <v>328</v>
+        <v>232</v>
       </c>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" t="s">
-        <v>232</v>
+        <v>329</v>
       </c>
       <c r="K418" t="s">
-        <v>232</v>
+        <v>329</v>
       </c>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" t="s">
-        <v>329</v>
+        <v>218</v>
       </c>
       <c r="K419" t="s">
-        <v>329</v>
+        <v>218</v>
       </c>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" t="s">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="K420" t="s">
-        <v>218</v>
+        <v>330</v>
       </c>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="K421" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K422" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="K423" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K424" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K425" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K426" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K427" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" t="s">
-        <v>409</v>
+        <v>317</v>
       </c>
       <c r="K428" t="s">
-        <v>409</v>
+        <v>317</v>
       </c>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K429" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K430" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" t="s">
-        <v>319</v>
+        <v>410</v>
       </c>
       <c r="K431" t="s">
-        <v>319</v>
+        <v>410</v>
       </c>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K432" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K433" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K434" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" t="s">
-        <v>413</v>
+        <v>320</v>
       </c>
       <c r="K435" t="s">
-        <v>413</v>
+        <v>320</v>
       </c>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K436" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K437" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K438" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K439" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="K440" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K441" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" t="s">
-        <v>367</v>
+        <v>32</v>
+      </c>
+      <c r="B442" t="s">
+        <v>32</v>
+      </c>
+      <c r="C442" t="s">
+        <v>32</v>
+      </c>
+      <c r="D442" t="s">
+        <v>32</v>
+      </c>
+      <c r="E442" t="s">
+        <v>32</v>
+      </c>
+      <c r="F442" t="s">
+        <v>32</v>
+      </c>
+      <c r="G442" t="s">
+        <v>32</v>
+      </c>
+      <c r="H442" t="s">
+        <v>32</v>
+      </c>
+      <c r="I442" t="s">
+        <v>32</v>
+      </c>
+      <c r="J442" t="s">
+        <v>32</v>
       </c>
       <c r="K442" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11">
-      <c r="A443" t="s">
-        <v>32</v>
-      </c>
-      <c r="B443" t="s">
-        <v>32</v>
-      </c>
-      <c r="C443" t="s">
-        <v>32</v>
-      </c>
-      <c r="D443" t="s">
-        <v>32</v>
-      </c>
-      <c r="E443" t="s">
-        <v>32</v>
-      </c>
-      <c r="F443" t="s">
-        <v>32</v>
-      </c>
-      <c r="G443" t="s">
-        <v>32</v>
-      </c>
-      <c r="H443" t="s">
-        <v>32</v>
-      </c>
-      <c r="I443" t="s">
-        <v>32</v>
-      </c>
-      <c r="J443" t="s">
-        <v>32</v>
-      </c>
-      <c r="K443" t="s">
         <v>32</v>
       </c>
     </row>
